--- a/20201110/◎資訊/data/績效資料/COPR3820201110000180202011100001.xlsx
+++ b/20201110/◎資訊/data/績效資料/COPR3820201110000180202011100001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>有幾園生物科技股份有限公司</t>
   </si>
@@ -22,7 +22,7 @@
     <t>業務員別銷貨期報表</t>
   </si>
   <si>
-    <t>製表日期: 2020/11/09</t>
+    <t>製表日期: 2020/11/10</t>
   </si>
   <si>
     <t>期間: 2020/11/01 至</t>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>柯世鵬</t>
+  </si>
+  <si>
+    <t>廖士緯</t>
   </si>
   <si>
     <t>陳騏毅</t>
@@ -226,7 +229,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -291,13 +294,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>21543</v>
+        <v>42319</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>21543</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="7" ht="12.75">
@@ -305,13 +308,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>27272</v>
+        <v>28647</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <v>27272</v>
+        <v>28647</v>
       </c>
     </row>
     <row r="8" ht="12.75">
@@ -319,13 +322,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="6">
-        <v>151008</v>
+        <v>172815</v>
       </c>
       <c r="C8" s="6">
-        <v>42420</v>
+        <v>44500</v>
       </c>
       <c r="D8" s="6">
-        <v>108588</v>
+        <v>128315</v>
       </c>
     </row>
     <row r="9" ht="12.75">
@@ -333,13 +336,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="6">
-        <v>28452</v>
+        <v>36890</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
-        <v>28452</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="10" ht="12.75">
@@ -347,13 +350,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="6">
-        <v>444482</v>
+        <v>468893</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>444482</v>
+        <v>468893</v>
       </c>
     </row>
     <row r="11" ht="12.75">
@@ -361,13 +364,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="6">
-        <v>290547</v>
+        <v>303449</v>
       </c>
       <c r="C11" s="6">
         <v>13500</v>
       </c>
       <c r="D11" s="6">
-        <v>277047</v>
+        <v>289949</v>
       </c>
     </row>
     <row r="12" ht="12.75">
@@ -375,13 +378,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="6">
-        <v>329673</v>
+        <v>425692</v>
       </c>
       <c r="C12" s="6">
         <v>6656</v>
       </c>
       <c r="D12" s="6">
-        <v>323017</v>
+        <v>419036</v>
       </c>
     </row>
     <row r="13" ht="12.75">
@@ -403,13 +406,13 @@
         <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>267581</v>
+        <v>355274</v>
       </c>
       <c r="C14" s="6">
         <v>33958</v>
       </c>
       <c r="D14" s="6">
-        <v>233623</v>
+        <v>321316</v>
       </c>
     </row>
     <row r="15" ht="12.75">
@@ -417,13 +420,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="6">
-        <v>511628</v>
+        <v>545745</v>
       </c>
       <c r="C15" s="6">
         <v>20348</v>
       </c>
       <c r="D15" s="6">
-        <v>491280</v>
+        <v>525397</v>
       </c>
     </row>
     <row r="16" ht="12.75">
@@ -445,13 +448,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="6">
-        <v>303257</v>
+        <v>383635</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>303257</v>
+        <v>383635</v>
       </c>
     </row>
     <row r="18" ht="12.75">
@@ -459,13 +462,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="6">
-        <v>130922</v>
+        <v>1714</v>
       </c>
       <c r="C18" s="6">
-        <v>107344</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>23578</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="19" ht="12.75">
@@ -473,13 +476,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="6">
-        <v>200310</v>
+        <v>255482</v>
       </c>
       <c r="C19" s="6">
-        <v>8259</v>
+        <v>110706</v>
       </c>
       <c r="D19" s="6">
-        <v>192051</v>
+        <v>144776</v>
       </c>
     </row>
     <row r="20" ht="12.75">
@@ -487,13 +490,13 @@
         <v>24</v>
       </c>
       <c r="B20" s="6">
-        <v>174741</v>
+        <v>230079</v>
       </c>
       <c r="C20" s="6">
-        <v>5237</v>
+        <v>8259</v>
       </c>
       <c r="D20" s="6">
-        <v>169504</v>
+        <v>221820</v>
       </c>
     </row>
     <row r="21" ht="12.75">
@@ -501,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>1950</v>
+        <v>251640</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>5237</v>
       </c>
       <c r="D21" s="6">
-        <v>1950</v>
+        <v>246403</v>
       </c>
     </row>
     <row r="22" ht="12.75">
@@ -515,13 +518,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="6">
-        <v>2590</v>
+        <v>1950</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>2590</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="23" ht="12.75">
@@ -529,33 +532,47 @@
         <v>27</v>
       </c>
       <c r="B23" s="6">
-        <v>87224</v>
+        <v>2590</v>
       </c>
       <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <v>91818</v>
+      </c>
+      <c r="C24" s="6">
         <v>952</v>
       </c>
-      <c r="D23" s="6">
-        <v>86272</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6">
-        <v>3532190</v>
-      </c>
-      <c r="C24" s="6">
-        <v>238674</v>
-      </c>
       <c r="D24" s="6">
-        <v>3293516</v>
+        <v>90866</v>
       </c>
     </row>
     <row r="25" ht="12.75">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>28</v>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6">
+        <v>4157642</v>
+      </c>
+      <c r="C25" s="6">
+        <v>244116</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3913526</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
